--- a/provs/amazon/historical data amazon.xlsx
+++ b/provs/amazon/historical data amazon.xlsx
@@ -10,9 +10,6 @@
     <sheet name="ondemand" sheetId="1" r:id="rId1"/>
     <sheet name="features" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ondemand!$A$1:$J$518</definedName>
     <definedName name="iaas_curent_pricings" localSheetId="0">ondemand!#REF!</definedName>
@@ -542,30 +539,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cc2.8xlarge ??</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F15" authorId="0">
       <text>
         <r>
@@ -587,31 +560,6 @@
           </rPr>
           <t xml:space="preserve">
 2 x Intel Xeon E5-2670, eight-core "Sandy Bridge" architecture</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cg1.4xlarge ??
-GPU based Cluster</t>
         </r>
       </text>
     </comment>
@@ -690,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="231">
   <si>
     <t>Date</t>
   </si>
@@ -1373,13 +1321,7 @@
     <t>Very High (10Gbps)</t>
   </si>
   <si>
-    <t>cc1.8xlarge</t>
-  </si>
-  <si>
     <t>Cluster Compute Eight Extra Large 60.5 GB memory, 88 EC2 Compute Units, 3370 GB of local instance storage, 64-bit platform, 10 Gigabit Ethernet</t>
-  </si>
-  <si>
-    <t>cc2.4xlarge</t>
   </si>
   <si>
     <t>Cluster GPU Quadruple Extra Large 22 GB memory, 33.5 EC2 Compute Units, 2 x NVIDIA Tesla “Fermi” M2050 GPUs, 1690 GB of local instance storage, 64-bit platform, 10 Gigabit Ethernet</t>
@@ -1570,7 +1512,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1722,11 +1663,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70845184"/>
-        <c:axId val="70846720"/>
+        <c:axId val="42255872"/>
+        <c:axId val="46927872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70845184"/>
+        <c:axId val="42255872"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1737,12 +1678,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70846720"/>
+        <c:crossAx val="46927872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70846720"/>
+        <c:axId val="46927872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1754,14 +1695,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70845184"/>
+        <c:crossAx val="42255872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1811,155 +1751,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="type vs capacity"/>
-      <sheetName val="tocsv"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="G1" t="str">
-            <v>ECU/GECU</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="E2">
-            <v>1.7</v>
-          </cell>
-          <cell r="G2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>3.75</v>
-          </cell>
-          <cell r="G3">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>7.5</v>
-          </cell>
-          <cell r="G4">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>15</v>
-          </cell>
-          <cell r="G5">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>15</v>
-          </cell>
-          <cell r="G6">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>30</v>
-          </cell>
-          <cell r="G7">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>0.61299999999999999</v>
-          </cell>
-          <cell r="G8">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>17.100000000000001</v>
-          </cell>
-          <cell r="G9">
-            <v>6.5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>34.200000000000003</v>
-          </cell>
-          <cell r="G10">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>68.400000000000006</v>
-          </cell>
-          <cell r="G11">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>1.7</v>
-          </cell>
-          <cell r="G12">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>7</v>
-          </cell>
-          <cell r="G13">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>23</v>
-          </cell>
-          <cell r="G14">
-            <v>33.5</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>60.5</v>
-          </cell>
-          <cell r="G15">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>22</v>
-          </cell>
-          <cell r="G16">
-            <v>33.5</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>60.5</v>
-          </cell>
-          <cell r="G17">
-            <v>35</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14974,8 +14765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15539,10 +15330,10 @@
     </row>
     <row r="15" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>227</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>204</v>
@@ -15578,10 +15369,10 @@
     </row>
     <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>204</v>
@@ -15617,10 +15408,10 @@
     </row>
     <row r="17" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>204</v>
